--- a/Final Report/replication_viz.xlsx
+++ b/Final Report/replication_viz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/Downloads/GitHub/COMP8240_Project_J/Final Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A2DC66CD-F8F2-DF45-A2C1-65215723F7F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E271C0F-70E7-7045-9670-CDF22819E153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="label" sheetId="1" r:id="rId1"/>
@@ -954,7 +954,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -2203,7 +2203,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Replication Results Accuracy</a:t>
+              <a:t>Replication Results on Original and New Data</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2332,16 +2332,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Text Only</c:v>
+                  <c:v>Multimodal-Attention</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Multimodal</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Audio Only</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Multimodal</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>Multimodal-Attention</c:v>
+                  <c:v>Text Only</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2353,16 +2353,16 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.308</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36299999999999999</c:v>
+                  <c:v>0.34899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35</c:v>
+                  <c:v>0.30599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2461,16 +2461,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Text Only</c:v>
+                  <c:v>Multimodal-Attention</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Multimodal</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Audio Only</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Multimodal</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>Multimodal-Attention</c:v>
+                  <c:v>Text Only</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2482,16 +2482,16 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.32700000000000001</c:v>
+                  <c:v>0.2389</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.27300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.23499999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.27300000000000002</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2389</c:v>
+                  <c:v>0.32700000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2590,16 +2590,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Text Only</c:v>
+                  <c:v>Multimodal-Attention</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Multimodal</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Audio Only</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Multimodal</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>Multimodal-Attention</c:v>
+                  <c:v>Text Only</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2611,16 +2611,16 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.628</c:v>
+                  <c:v>0.48499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.55700000000000005</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.71</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48499999999999999</c:v>
+                  <c:v>0.628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2719,16 +2719,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Text Only</c:v>
+                  <c:v>Multimodal-Attention</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Multimodal</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Audio Only</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Multimodal</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>Multimodal-Attention</c:v>
+                  <c:v>Text Only</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2740,16 +2740,16 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.63500000000000001</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.71799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.54600000000000004</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.71799999999999997</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69</c:v>
+                  <c:v>0.63500000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5452,16 +5452,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z285"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:U285"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5511,22 +5511,22 @@
         <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L3" s="2">
-        <v>0.63500000000000001</v>
+        <v>0.69</v>
       </c>
       <c r="M3" s="2">
-        <v>0.628</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="N3" s="2">
-        <v>0.32700000000000001</v>
+        <v>0.2389</v>
       </c>
       <c r="O3" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5544,22 +5544,22 @@
         <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L4" s="2">
-        <v>0.54600000000000004</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="M4" s="2">
-        <v>0.55700000000000005</v>
+        <v>0.71</v>
       </c>
       <c r="N4" s="2">
-        <v>0.23499999999999999</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="O4" s="2">
-        <v>0.36299999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5577,22 +5577,22 @@
         <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L5" s="2">
-        <v>0.71799999999999997</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="M5" s="2">
-        <v>0.71</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="N5" s="2">
-        <v>0.27300000000000002</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="O5" s="2">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -5610,27 +5610,27 @@
         <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L6" s="2">
-        <v>0.69</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="M6" s="2">
-        <v>0.48499999999999999</v>
+        <v>0.628</v>
       </c>
       <c r="N6" s="2">
-        <v>0.2389</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="O6" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.25</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5647,13 +5647,13 @@
         <f>COUNTIF(C:C,E7)</f>
         <v>22</v>
       </c>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5663,13 +5663,13 @@
       <c r="C8" t="s">
         <v>290</v>
       </c>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -5685,13 +5685,13 @@
       <c r="F9" t="s">
         <v>295</v>
       </c>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -5707,13 +5707,13 @@
       <c r="F10">
         <v>400</v>
       </c>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -8772,7 +8772,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:C285"/>
+  <autoFilter ref="A2:C285" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:F7">
     <sortCondition descending="1" ref="F3:F7"/>
   </sortState>

--- a/Final Report/replication_viz.xlsx
+++ b/Final Report/replication_viz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/Downloads/GitHub/COMP8240_Project_J/Final Report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E271C0F-70E7-7045-9670-CDF22819E153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C4626C-8441-874C-AF1B-AD29D974687E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35260" yWindow="1440" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="label" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="337">
   <si>
     <t>DY001</t>
   </si>
@@ -945,10 +945,106 @@
     <t>Replication - Original</t>
   </si>
   <si>
-    <t>Replication-Youtube</t>
-  </si>
-  <si>
-    <t>Replication-TESS</t>
+    <t>Extension - YouTube</t>
+  </si>
+  <si>
+    <t>Extension - TESS</t>
+  </si>
+  <si>
+    <t>YOUTUBE</t>
+  </si>
+  <si>
+    <t>audio_woZ_set01</t>
+  </si>
+  <si>
+    <t>audio_woZ_set01_Daudio_woZ_set01_b128_es750_L1_H200_dr0.7_10-30-23-27</t>
+  </si>
+  <si>
+    <t>audio_woZ_set02</t>
+  </si>
+  <si>
+    <t>audio_woZ_set02_Daudio_woZ_set02_b128_es750_L1_H200_dr0.7_10-31-02-45</t>
+  </si>
+  <si>
+    <t>audio_woZ_set03</t>
+  </si>
+  <si>
+    <t>audio_woZ_set03_Daudio_woZ_set03_b128_es750_L1_H200_dr0.7_10-31-04-52</t>
+  </si>
+  <si>
+    <t>audio_woZ_set04</t>
+  </si>
+  <si>
+    <t>audio_woZ_set04_Daudio_woZ_set04_b128_es750_L1_H200_dr0.7_10-31-07-21</t>
+  </si>
+  <si>
+    <t>audio_woZ_set05</t>
+  </si>
+  <si>
+    <t>audio_woZ_set05_Daudio_woZ_set05_b128_es750_L1_H200_dr0.7_10-31-08-37</t>
+  </si>
+  <si>
+    <t>audio_woZ_set01_Daudio_woZ_set01_b128_esA750_LA1_HA200_drA0.7_esT128_LT1_HT200_G1_drT0.3_10-31-19-32</t>
+  </si>
+  <si>
+    <t>audio_woZ_set02_Daudio_woZ_set02_b128_esA750_LA1_HA200_drA0.7_esT128_LT1_HT200_G1_drT0.3_10-31-23-02</t>
+  </si>
+  <si>
+    <t>audio_woZ_set03_Daudio_woZ_set03_b128_esA750_LA1_HA200_drA0.7_esT128_LT1_HT200_G1_drT0.3_11-01-00-30</t>
+  </si>
+  <si>
+    <t>audio_woZ_set04_Daudio_woZ_set04_b128_esA750_LA1_HA200_drA0.7_esT128_LT1_HT200_G1_drT0.3_11-01-02-06</t>
+  </si>
+  <si>
+    <t>audio_woZ_set05_Daudio_woZ_set05_b128_esA750_LA1_HA200_drA0.7_esT128_LT1_HT200_G1_drT0.3_11-01-03-24</t>
+  </si>
+  <si>
+    <t>TESS</t>
+  </si>
+  <si>
+    <t>SE_multi_attn_prosody_audio_woZ_set01_Daudio_woZ_set01_b128_esA750_LA1_HA200_drA0.7_esT128_LT1_HT200_G1_drT0.3_11-01-08-38</t>
+  </si>
+  <si>
+    <t>SE_multi_attn_prosody_audio_woZ_set02_Daudio_woZ_set02_b128_esA750_LA1_HA200_drA0.7_esT128_LT1_HT200_G1_drT0.3_11-01-10-35</t>
+  </si>
+  <si>
+    <t>SE_multi_attn_prosody_audio_woZ_set03_Daudio_woZ_set03_b128_esA750_LA1_HA200_drA0.7_esT128_LT1_HT200_G1_drT0.3_11-01-12-01</t>
+  </si>
+  <si>
+    <t>SE_multi_attn_prosody_audio_woZ_set04_Daudio_woZ_set04_b128_esA750_LA1_HA200_drA0.7_esT128_LT1_HT200_G1_drT0.3_11-01-14-02</t>
+  </si>
+  <si>
+    <t>SE_multi_attn_prosody_audio_woZ_set05_Daudio_woZ_set05_b128_esA750_LA1_HA200_drA0.7_esT128_LT1_HT200_G1_drT0.3_11-01-15-23</t>
+  </si>
+  <si>
+    <t>SE_nlp_Daudio_woZ_set01_b128_es128_L1_H200_G1_dr0.3_11-01-09-31</t>
+  </si>
+  <si>
+    <t>SE_nlp_Daudio_woZ_set02_b128_es128_L1_H200_G1_dr0.3_11-01-09-51</t>
+  </si>
+  <si>
+    <t>SE_nlp_Daudio_woZ_set03_b128_es128_L1_H200_G1_dr0.3_11-01-10-15</t>
+  </si>
+  <si>
+    <t>SE_nlp_Daudio_woZ_set04_b128_es128_L1_H200_G1_dr0.3_11-01-10-33</t>
+  </si>
+  <si>
+    <t>SE_nlp_Daudio_woZ_set05_b128_es128_L1_H200_G1_dr0.3_11-01-10-53</t>
+  </si>
+  <si>
+    <t>SE_multi_attn_prosody_Daudio_woZ_set01_b128_esA750_LA1_HA200_drA0.7_esT128_LT1_HT200_G1_drT0.3_11-02-13-49</t>
+  </si>
+  <si>
+    <t>SE_multi_attn_prosody_Daudio_woZ_set02_b128_esA750_LA1_HA200_drA0.7_esT128_LT1_HT200_G1_drT0.3_11-02-14-49</t>
+  </si>
+  <si>
+    <t>SE_multi_attn_prosody_Daudio_woZ_set03_b128_esA750_LA1_HA200_drA0.7_esT128_LT1_HT200_G1_drT0.3_11-02-15-54</t>
+  </si>
+  <si>
+    <t>SE_multi_attn_prosody_Daudio_woZ_set04_b128_esA750_LA1_HA200_drA0.7_esT128_LT1_HT200_G1_drT0.3_11-02-16-50</t>
+  </si>
+  <si>
+    <t>SE_multi_attn_prosody_Daudio_woZ_set05_b128_esA750_LA1_HA200_drA0.7_esT128_LT1_HT200_G1_drT0.3_11-02-16-21</t>
   </si>
 </sst>
 </file>
@@ -2202,8 +2298,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Replication Results on Original and New Data</a:t>
+              <a:rPr lang="en-GB" sz="1400"/>
+              <a:t>Results on Original and New Data</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2253,7 +2349,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Replication-TESS</c:v>
+                  <c:v>Extension - TESS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2283,7 +2379,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2382,7 +2478,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Replication-Youtube</c:v>
+                  <c:v>Extension - YouTube</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2412,7 +2508,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2541,7 +2637,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2670,7 +2766,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2802,7 +2898,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2862,7 +2958,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4628,10 +4724,10 @@
       <xdr:rowOff>135466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>364066</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>97366</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>804333</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5453,10 +5549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:U285"/>
+  <dimension ref="A2:W285"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5973,7 +6069,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -5984,7 +6080,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -5994,8 +6090,11 @@
       <c r="C34" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -6005,8 +6104,38 @@
       <c r="C35" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K35" s="1">
+        <v>44135.068055555559</v>
+      </c>
+      <c r="L35" t="s">
+        <v>306</v>
+      </c>
+      <c r="M35" t="s">
+        <v>307</v>
+      </c>
+      <c r="N35">
+        <v>0.51437699680511095</v>
+      </c>
+      <c r="O35">
+        <v>0.221374045801526</v>
+      </c>
+      <c r="R35" s="1">
+        <v>44136.410416666666</v>
+      </c>
+      <c r="S35" t="s">
+        <v>306</v>
+      </c>
+      <c r="T35" t="s">
+        <v>327</v>
+      </c>
+      <c r="U35">
+        <v>0.600638977635782</v>
+      </c>
+      <c r="V35">
+        <v>0.35877862595419802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -6017,8 +6146,38 @@
         <v>290</v>
       </c>
       <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K36" s="1">
+        <v>44135.202777777777</v>
+      </c>
+      <c r="L36" t="s">
+        <v>308</v>
+      </c>
+      <c r="M36" t="s">
+        <v>309</v>
+      </c>
+      <c r="N36">
+        <v>0.58031088082901505</v>
+      </c>
+      <c r="O36">
+        <v>0.213740458015267</v>
+      </c>
+      <c r="R36" s="1">
+        <v>44136.427083333336</v>
+      </c>
+      <c r="S36" t="s">
+        <v>308</v>
+      </c>
+      <c r="T36" t="s">
+        <v>328</v>
+      </c>
+      <c r="U36">
+        <v>0.65025906735751204</v>
+      </c>
+      <c r="V36">
+        <v>0.25572519083969403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -6029,8 +6188,38 @@
         <v>293</v>
       </c>
       <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K37" s="1">
+        <v>44135.306250000001</v>
+      </c>
+      <c r="L37" t="s">
+        <v>310</v>
+      </c>
+      <c r="M37" t="s">
+        <v>311</v>
+      </c>
+      <c r="N37">
+        <v>0.51274787535410704</v>
+      </c>
+      <c r="O37">
+        <v>0.217557251908396</v>
+      </c>
+      <c r="R37" s="1">
+        <v>44136.439583333333</v>
+      </c>
+      <c r="S37" t="s">
+        <v>310</v>
+      </c>
+      <c r="T37" t="s">
+        <v>329</v>
+      </c>
+      <c r="U37">
+        <v>0.60623229461756301</v>
+      </c>
+      <c r="V37">
+        <v>0.38549618320610601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -6041,8 +6230,38 @@
         <v>293</v>
       </c>
       <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K38" s="1">
+        <v>44135.359027777777</v>
+      </c>
+      <c r="L38" t="s">
+        <v>312</v>
+      </c>
+      <c r="M38" t="s">
+        <v>313</v>
+      </c>
+      <c r="N38">
+        <v>0.44314868804664698</v>
+      </c>
+      <c r="O38">
+        <v>0.27862595419847302</v>
+      </c>
+      <c r="R38" s="1">
+        <v>44136.453472222223</v>
+      </c>
+      <c r="S38" t="s">
+        <v>312</v>
+      </c>
+      <c r="T38" t="s">
+        <v>330</v>
+      </c>
+      <c r="U38">
+        <v>0.61516034985422696</v>
+      </c>
+      <c r="V38">
+        <v>0.32824427480916002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -6053,8 +6272,46 @@
         <v>290</v>
       </c>
       <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K39" s="1">
+        <v>44135.428472222222</v>
+      </c>
+      <c r="L39" t="s">
+        <v>314</v>
+      </c>
+      <c r="M39" t="s">
+        <v>315</v>
+      </c>
+      <c r="N39">
+        <v>0.50488599348534202</v>
+      </c>
+      <c r="O39">
+        <v>0.244274809160305</v>
+      </c>
+      <c r="P39">
+        <f>AVERAGE(O35:O39)</f>
+        <v>0.23511450381679339</v>
+      </c>
+      <c r="R39" s="1">
+        <v>44136.470138888886</v>
+      </c>
+      <c r="S39" t="s">
+        <v>314</v>
+      </c>
+      <c r="T39" t="s">
+        <v>331</v>
+      </c>
+      <c r="U39">
+        <v>0.66123778501628605</v>
+      </c>
+      <c r="V39">
+        <v>0.30534351145038102</v>
+      </c>
+      <c r="W39">
+        <f>AVERAGE(V35:V39)</f>
+        <v>0.32671755725190782</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -6065,8 +6322,38 @@
         <v>292</v>
       </c>
       <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K40" s="1">
+        <v>44135.870138888888</v>
+      </c>
+      <c r="L40" t="s">
+        <v>306</v>
+      </c>
+      <c r="M40" t="s">
+        <v>316</v>
+      </c>
+      <c r="N40">
+        <v>0.65175718849840203</v>
+      </c>
+      <c r="O40">
+        <v>0.27862595419847302</v>
+      </c>
+      <c r="R40" s="1">
+        <v>44137.617361111108</v>
+      </c>
+      <c r="S40" t="s">
+        <v>306</v>
+      </c>
+      <c r="T40" t="s">
+        <v>332</v>
+      </c>
+      <c r="U40">
+        <v>0.492012779552715</v>
+      </c>
+      <c r="V40">
+        <v>0.240458015267175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -6076,8 +6363,38 @@
       <c r="C41" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K41" s="1">
+        <v>44136.017361111109</v>
+      </c>
+      <c r="L41" t="s">
+        <v>308</v>
+      </c>
+      <c r="M41" t="s">
+        <v>317</v>
+      </c>
+      <c r="N41">
+        <v>0.66321243523315998</v>
+      </c>
+      <c r="O41">
+        <v>0.28244274809160302</v>
+      </c>
+      <c r="R41" s="1">
+        <v>44137.662499999999</v>
+      </c>
+      <c r="S41" t="s">
+        <v>308</v>
+      </c>
+      <c r="T41" t="s">
+        <v>333</v>
+      </c>
+      <c r="U41">
+        <v>0.590673575129533</v>
+      </c>
+      <c r="V41">
+        <v>0.20229007633587701</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -6087,8 +6404,38 @@
       <c r="C42" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K42" s="1">
+        <v>44136.087500000001</v>
+      </c>
+      <c r="L42" t="s">
+        <v>310</v>
+      </c>
+      <c r="M42" t="s">
+        <v>318</v>
+      </c>
+      <c r="N42">
+        <v>0.68838526912181297</v>
+      </c>
+      <c r="O42">
+        <v>0.27862595419847302</v>
+      </c>
+      <c r="R42" s="1">
+        <v>44137.701388888891</v>
+      </c>
+      <c r="S42" t="s">
+        <v>310</v>
+      </c>
+      <c r="T42" t="s">
+        <v>334</v>
+      </c>
+      <c r="U42">
+        <v>0.43342776203965999</v>
+      </c>
+      <c r="V42">
+        <v>0.25572519083969403</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -6099,8 +6446,38 @@
         <v>290</v>
       </c>
       <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K43" s="1">
+        <v>44136.14166666667</v>
+      </c>
+      <c r="L43" t="s">
+        <v>312</v>
+      </c>
+      <c r="M43" t="s">
+        <v>319</v>
+      </c>
+      <c r="N43">
+        <v>0.64139941690962099</v>
+      </c>
+      <c r="O43">
+        <v>0.27862595419847302</v>
+      </c>
+      <c r="R43" s="1">
+        <v>44137.75</v>
+      </c>
+      <c r="S43" t="s">
+        <v>312</v>
+      </c>
+      <c r="T43" t="s">
+        <v>335</v>
+      </c>
+      <c r="U43">
+        <v>0.46647230320699701</v>
+      </c>
+      <c r="V43">
+        <v>0.244274809160305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -6111,8 +6488,46 @@
         <v>290</v>
       </c>
       <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K44" s="1">
+        <v>44136.213888888888</v>
+      </c>
+      <c r="L44" t="s">
+        <v>314</v>
+      </c>
+      <c r="M44" t="s">
+        <v>320</v>
+      </c>
+      <c r="N44">
+        <v>0.625407166123778</v>
+      </c>
+      <c r="O44">
+        <v>0.244274809160305</v>
+      </c>
+      <c r="P44">
+        <f>AVERAGE(O40:O44)</f>
+        <v>0.27251908396946545</v>
+      </c>
+      <c r="R44" s="1">
+        <v>44137.73541666667</v>
+      </c>
+      <c r="S44" t="s">
+        <v>314</v>
+      </c>
+      <c r="T44" t="s">
+        <v>336</v>
+      </c>
+      <c r="U44">
+        <v>0.46905537459283297</v>
+      </c>
+      <c r="V44">
+        <v>0.25190839694656397</v>
+      </c>
+      <c r="W44">
+        <f>AVERAGE(V40:V44)</f>
+        <v>0.238931297709923</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -6124,7 +6539,7 @@
       </c>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -6135,8 +6550,11 @@
         <v>289</v>
       </c>
       <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K46" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -6147,8 +6565,23 @@
         <v>289</v>
       </c>
       <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K47" s="1">
+        <v>44136.427083333336</v>
+      </c>
+      <c r="L47" t="s">
+        <v>306</v>
+      </c>
+      <c r="M47" t="s">
+        <v>322</v>
+      </c>
+      <c r="N47">
+        <v>0.50479233226836995</v>
+      </c>
+      <c r="O47">
+        <v>0.38961851156973099</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -6158,8 +6591,23 @@
       <c r="C48" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K48" s="1">
+        <v>44136.500694444447</v>
+      </c>
+      <c r="L48" t="s">
+        <v>308</v>
+      </c>
+      <c r="M48" t="s">
+        <v>323</v>
+      </c>
+      <c r="N48">
+        <v>0.52590673575129498</v>
+      </c>
+      <c r="O48">
+        <v>0.30769230769230699</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -6169,8 +6617,23 @@
       <c r="C49" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K49" s="1">
+        <v>44136.549305555556</v>
+      </c>
+      <c r="L49" t="s">
+        <v>310</v>
+      </c>
+      <c r="M49" t="s">
+        <v>324</v>
+      </c>
+      <c r="N49">
+        <v>0.52124645892351196</v>
+      </c>
+      <c r="O49">
+        <v>0.27704815509693498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -6180,8 +6643,23 @@
       <c r="C50" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K50" s="1">
+        <v>44136.640972222223</v>
+      </c>
+      <c r="L50" t="s">
+        <v>312</v>
+      </c>
+      <c r="M50" t="s">
+        <v>325</v>
+      </c>
+      <c r="N50">
+        <v>0.45772594752186502</v>
+      </c>
+      <c r="O50">
+        <v>0.27579737335834897</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -6192,8 +6670,27 @@
         <v>290</v>
       </c>
       <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K51" s="1">
+        <v>44136.715277777781</v>
+      </c>
+      <c r="L51" t="s">
+        <v>314</v>
+      </c>
+      <c r="M51" t="s">
+        <v>326</v>
+      </c>
+      <c r="N51">
+        <v>0.48534201954397299</v>
+      </c>
+      <c r="O51">
+        <v>0.29018136335209499</v>
+      </c>
+      <c r="P51">
+        <f>AVERAGE(O47:O51)</f>
+        <v>0.30806754221388333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -6205,7 +6702,7 @@
       </c>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -6217,7 +6714,7 @@
       </c>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -6229,7 +6726,7 @@
       </c>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -6241,7 +6738,7 @@
       </c>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -6252,7 +6749,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -6263,7 +6760,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -6274,7 +6771,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -6285,7 +6782,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -6296,7 +6793,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -6307,7 +6804,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -6318,7 +6815,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -6329,7 +6826,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>67</v>
       </c>

--- a/Final Report/replication_viz.xlsx
+++ b/Final Report/replication_viz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jan/Downloads/GitHub/COMP8240_Project_J/Final Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C4626C-8441-874C-AF1B-AD29D974687E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7717CE-9A1C-DF44-A2D8-D0888BF1D6F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35260" yWindow="1440" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="label" sheetId="1" r:id="rId1"/>
@@ -1715,7 +1715,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1853,7 +1853,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5552,7 +5552,7 @@
   <dimension ref="A2:W285"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
